--- a/data/artworks.xlsx
+++ b/data/artworks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hale/Desktop/artworks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08089DF-EC00-6849-8228-64150260CEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B0D126-8CCF-1343-B1CB-F5D238A2819A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="18760" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="258">
   <si>
     <t>URL</t>
   </si>
@@ -798,9 +798,6 @@
     <t>asterisk</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f0/Donatello_-_David_-_Floren%C3%A7a.jpg/512px-Donatello_-_David_-_Floren%C3%A7a.jpg</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f7/Stmark.jpg/250px-Stmark.jpg</t>
   </si>
   <si>
@@ -834,9 +831,6 @@
     <t>https://i.pinimg.com/originals/30/b3/94/30b3946cce15f83dfd3c51305e1a8445.jpg</t>
   </si>
   <si>
-    <t>Palazzo dri Priori</t>
-  </si>
-  <si>
     <t>commissioned by Opera del Doumo</t>
   </si>
   <si>
@@ -883,6 +877,9 @@
   </si>
   <si>
     <t>Creation of Adam 1</t>
+  </si>
+  <si>
+    <t>https://smarthistory.org/wp-content/uploads/2021/07/1024px-Bargello_Donatello_David_02-copy.jpg</t>
   </si>
 </sst>
 </file>
@@ -1322,8 +1319,8 @@
   </sheetPr>
   <dimension ref="A1:AA984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1393,7 +1390,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>11</v>
@@ -1418,7 +1415,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>17</v>
@@ -1443,7 +1440,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>22</v>
@@ -1468,7 +1465,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>27</v>
@@ -1495,7 +1492,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>32</v>
@@ -1520,7 +1517,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>35</v>
@@ -1547,7 +1544,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>35</v>
@@ -1574,7 +1571,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>44</v>
@@ -1595,13 +1592,13 @@
         <v>47</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>48</v>
@@ -1622,13 +1619,13 @@
         <v>50</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>51</v>
@@ -1651,13 +1648,13 @@
         <v>54</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>56</v>
@@ -1678,13 +1675,13 @@
         <v>59</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>60</v>
@@ -1702,7 +1699,7 @@
     </row>
     <row r="14" spans="1:27" ht="201.75" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>62</v>
@@ -1713,9 +1710,7 @@
       <c r="D14" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>242</v>
-      </c>
+      <c r="E14" s="23"/>
       <c r="F14" s="24" t="s">
         <v>94</v>
       </c>
@@ -1723,15 +1718,15 @@
         <v>28</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="166.5" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>64</v>
@@ -1740,7 +1735,7 @@
         <v>63</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>150</v>
@@ -1756,12 +1751,12 @@
         <v>#NAME?</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="141.75" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>65</v>
@@ -1770,7 +1765,7 @@
         <v>63</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>150</v>
@@ -1782,15 +1777,15 @@
         <v>28</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="168" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>66</v>
@@ -1799,7 +1794,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>150</v>
@@ -1808,16 +1803,16 @@
         <v>131</v>
       </c>
       <c r="G17" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="H17" s="31" t="s">
         <v>246</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>248</v>
       </c>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="142.5" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>67</v>
@@ -1828,25 +1823,23 @@
       <c r="D18" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="E18" s="23"/>
       <c r="F18" s="24" t="s">
         <v>131</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="131.25" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>68</v>
@@ -1855,10 +1848,10 @@
         <v>63</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>131</v>
@@ -1872,13 +1865,13 @@
         <v>69</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>71</v>
@@ -1907,7 +1900,7 @@
         <v>70</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>76</v>
@@ -1934,7 +1927,7 @@
         <v>70</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>76</v>
@@ -1961,7 +1954,7 @@
         <v>70</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>76</v>
@@ -1988,7 +1981,7 @@
         <v>70</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>76</v>
@@ -2009,13 +2002,13 @@
         <v>88</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>76</v>
@@ -2042,7 +2035,7 @@
         <v>92</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>93</v>
@@ -2069,7 +2062,7 @@
         <v>99</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>100</v>
@@ -2094,7 +2087,7 @@
         <v>99</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>100</v>
@@ -2119,7 +2112,7 @@
         <v>99</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>100</v>
@@ -2144,7 +2137,7 @@
         <v>99</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>100</v>
@@ -2169,7 +2162,7 @@
         <v>99</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>100</v>
@@ -2196,7 +2189,7 @@
         <v>99</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>100</v>
@@ -2223,7 +2216,7 @@
         <v>99</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>100</v>
@@ -2248,7 +2241,7 @@
         <v>99</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>100</v>
@@ -2273,7 +2266,7 @@
         <v>99</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="12" t="s">
@@ -2296,7 +2289,7 @@
         <v>99</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>121</v>
@@ -2312,7 +2305,7 @@
     </row>
     <row r="37" spans="1:9" ht="23.25" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>122</v>
@@ -2338,7 +2331,7 @@
         <v>125</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>126</v>
@@ -2359,13 +2352,13 @@
         <v>128</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>129</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>130</v>
@@ -2392,7 +2385,7 @@
         <v>129</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>130</v>
@@ -2419,7 +2412,7 @@
         <v>137</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>93</v>
@@ -2446,7 +2439,7 @@
         <v>137</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>93</v>
@@ -2473,7 +2466,7 @@
         <v>137</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>93</v>
@@ -2500,7 +2493,7 @@
         <v>137</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>93</v>
@@ -2527,7 +2520,7 @@
         <v>137</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>150</v>
@@ -2556,7 +2549,7 @@
         <v>137</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>150</v>
@@ -2585,7 +2578,7 @@
         <v>137</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>159</v>
@@ -2614,7 +2607,7 @@
         <v>137</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>159</v>
@@ -2641,7 +2634,7 @@
         <v>137</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>159</v>
@@ -2668,7 +2661,7 @@
         <v>171</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>172</v>
@@ -2684,7 +2677,7 @@
     </row>
     <row r="51" spans="1:9" ht="126" customHeight="1">
       <c r="A51" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>173</v>
@@ -2693,7 +2686,7 @@
         <v>171</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>172</v>
@@ -2718,7 +2711,7 @@
         <v>176</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E52" s="25" t="s">
         <v>177</v>
@@ -2736,7 +2729,7 @@
     </row>
     <row r="53" spans="1:9" ht="117" customHeight="1">
       <c r="A53" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>179</v>
@@ -2745,7 +2738,7 @@
         <v>180</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>150</v>
@@ -2757,7 +2750,7 @@
         <v>28</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I53" s="14"/>
     </row>
@@ -2772,7 +2765,7 @@
         <v>183</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>184</v>
@@ -2795,7 +2788,7 @@
         <v>187</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>188</v>
@@ -2824,7 +2817,7 @@
         <v>187</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>193</v>
@@ -2851,7 +2844,7 @@
         <v>187</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>193</v>
@@ -2878,7 +2871,7 @@
         <v>187</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>193</v>
@@ -2905,7 +2898,7 @@
         <v>202</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>203</v>
@@ -2932,7 +2925,7 @@
         <v>207</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>208</v>
@@ -2957,7 +2950,7 @@
         <v>207</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>184</v>
@@ -2982,7 +2975,7 @@
         <v>212</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>213</v>
@@ -3009,7 +3002,7 @@
         <v>212</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>217</v>
@@ -3038,7 +3031,7 @@
         <v>222</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>76</v>
@@ -3067,7 +3060,7 @@
         <v>227</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E65" s="26" t="s">
         <v>228</v>

--- a/data/artworks.xlsx
+++ b/data/artworks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hale/Desktop/artworks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B0D126-8CCF-1343-B1CB-F5D238A2819A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBDC875-00B4-5D41-BAFE-0316F5372B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="18760" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="258">
   <si>
     <t>URL</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>fresco</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/Jgmq4ut_1dvRN-hrh8p31YsxvMWKSEZf5-6B163iuV-gxen6z6ZoZKhjRjCXocqEz_SksnB_xSWuJU2Igav_u2igU4CgjbLNfgDlqXn3wLcOm0tk9MMYHdrQTpGt3u6MIuHHyv9C9g=s0</t>
   </si>
   <si>
     <t>Triumph of the Church</t>
@@ -879,7 +876,10 @@
     <t>Creation of Adam 1</t>
   </si>
   <si>
-    <t>https://smarthistory.org/wp-content/uploads/2021/07/1024px-Bargello_Donatello_David_02-copy.jpg</t>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/82/Way-of-salvation-church-militant-triumphant-andrea-di-bonaiuto-1365.jpg/2560px-Way-of-salvation-church-militant-triumphant-andrea-di-bonaiuto-1365.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/53/Marble_David_by_Donatello-Bargello.jpg/1200px-Marble_David_by_Donatello-Bargello.jpg</t>
   </si>
 </sst>
 </file>
@@ -897,22 +897,26 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -923,17 +927,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -949,17 +956,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1004,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1098,6 +1108,7 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1319,8 +1330,8 @@
   </sheetPr>
   <dimension ref="A1:AA984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1343,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -1390,7 +1401,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>11</v>
@@ -1405,23 +1416,23 @@
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:27" ht="147.75" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>13</v>
@@ -1431,269 +1442,269 @@
     </row>
     <row r="4" spans="1:27" ht="118.5" customHeight="1">
       <c r="A4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:27" ht="161.25" customHeight="1">
       <c r="A5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>28</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>29</v>
       </c>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:27" ht="116.25" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:27" ht="184.5" customHeight="1">
       <c r="A7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="34" t="s">
         <v>36</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>37</v>
       </c>
       <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:27" ht="186" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>39</v>
-      </c>
       <c r="C8" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:27" ht="223.5" customHeight="1">
       <c r="A9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="31" t="s">
         <v>45</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>46</v>
       </c>
       <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:27" ht="140.25" customHeight="1">
       <c r="A10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="31" t="s">
         <v>48</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>49</v>
       </c>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:27" ht="135" customHeight="1">
       <c r="A11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="F11" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="137.25" customHeight="1">
       <c r="A12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="F12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="31" t="s">
         <v>57</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>58</v>
       </c>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:27" ht="132" customHeight="1">
       <c r="A13" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="F13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="31" t="s">
         <v>60</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>61</v>
       </c>
       <c r="I13" s="14"/>
     </row>
@@ -1702,159 +1713,159 @@
         <v>257</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="166.5" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" s="31" t="e">
         <f>-the figure sinks into his cushion, heightening his sense of reality. the drapes move naturally along his body. the use of contrapposto pose. Resemblance to Greek figures</f>
         <v>#NAME?</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="141.75" customHeight="1">
       <c r="A16" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>232</v>
-      </c>
       <c r="E16" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="168" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="142.5" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="131.25" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="31"/>
@@ -1862,213 +1873,213 @@
     </row>
     <row r="20" spans="1:9" ht="139.5" customHeight="1">
       <c r="A20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="F20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="31" t="s">
+      <c r="I20" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="104.25" customHeight="1">
       <c r="A21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="G21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="31" t="s">
         <v>77</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>78</v>
       </c>
       <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" ht="98.25" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="31" t="s">
         <v>80</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>81</v>
       </c>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="139.5" customHeight="1">
       <c r="A23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" ht="185.25" customHeight="1">
       <c r="A24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="31" t="s">
         <v>86</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>87</v>
       </c>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" ht="156.75" customHeight="1">
       <c r="A25" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="31" t="s">
         <v>88</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>89</v>
       </c>
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" ht="197.25" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="G26" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="H26" s="31" t="s">
         <v>95</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>96</v>
       </c>
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" ht="246" customHeight="1">
       <c r="A27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="F27" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>13</v>
@@ -2078,22 +2089,22 @@
     </row>
     <row r="28" spans="1:9" ht="195" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="C28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="F28" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>13</v>
@@ -2103,22 +2114,22 @@
     </row>
     <row r="29" spans="1:9" ht="169.5" customHeight="1">
       <c r="A29" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>104</v>
-      </c>
       <c r="C29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="F29" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>13</v>
@@ -2128,22 +2139,22 @@
     </row>
     <row r="30" spans="1:9" ht="180" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="C30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="F30" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>13</v>
@@ -2153,76 +2164,76 @@
     </row>
     <row r="31" spans="1:9" ht="128.25" customHeight="1">
       <c r="A31" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="C31" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="F31" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" ht="111.75" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="C32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="F32" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" ht="166.5" customHeight="1">
       <c r="A33" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="C33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="F33" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>13</v>
@@ -2232,22 +2243,22 @@
     </row>
     <row r="34" spans="1:9" ht="241.5" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="C34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="F34" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>13</v>
@@ -2257,45 +2268,45 @@
     </row>
     <row r="35" spans="1:9" ht="180" customHeight="1">
       <c r="A35" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="C35" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" s="31"/>
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" ht="132.75" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>121</v>
-      </c>
       <c r="F36" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>13</v>
@@ -2305,473 +2316,479 @@
     </row>
     <row r="37" spans="1:9" ht="23.25" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>232</v>
+      </c>
       <c r="E37" s="15"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="23"/>
+      <c r="F37" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" s="31"/>
       <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" ht="171" customHeight="1">
       <c r="A38" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E38" s="15" t="s">
+      <c r="F38" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="34" t="s">
         <v>126</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>127</v>
       </c>
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" ht="145.5" customHeight="1">
       <c r="A39" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E39" s="15" t="s">
+      <c r="F39" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="G39" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="31" t="s">
         <v>131</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="31" t="s">
-        <v>132</v>
       </c>
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:9" ht="130.5" customHeight="1">
       <c r="A40" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="31" t="s">
         <v>134</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="31" t="s">
-        <v>135</v>
       </c>
       <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9" ht="103.5" customHeight="1">
       <c r="A41" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="8" t="s">
+      <c r="D41" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="31" t="s">
         <v>137</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H41" s="31" t="s">
-        <v>138</v>
       </c>
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9" ht="156.75" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="C42" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="31" t="s">
         <v>140</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H42" s="31" t="s">
-        <v>141</v>
       </c>
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="1:9" ht="255">
       <c r="A43" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43" s="31" t="s">
         <v>143</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H43" s="31" t="s">
-        <v>144</v>
       </c>
       <c r="I43" s="14"/>
     </row>
     <row r="44" spans="1:9" ht="135" customHeight="1">
       <c r="A44" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" s="31" t="s">
         <v>146</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H44" s="31" t="s">
-        <v>147</v>
       </c>
       <c r="I44" s="14"/>
     </row>
     <row r="45" spans="1:9" ht="176.25" customHeight="1">
       <c r="A45" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E45" s="15" t="s">
+      <c r="F45" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="F45" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" s="31" t="s">
+      <c r="I45" s="21" t="s">
         <v>151</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="150.75" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H46" s="31" t="s">
+      <c r="I46" s="21" t="s">
         <v>155</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="159.75" customHeight="1">
       <c r="A47" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E47" s="15" t="s">
+      <c r="F47" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G47" s="13" t="s">
+      <c r="H47" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="H47" s="31" t="s">
+      <c r="I47" s="21" t="s">
         <v>161</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="162.75" customHeight="1">
       <c r="A48" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="H48" s="31" t="s">
         <v>164</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="H48" s="31" t="s">
-        <v>165</v>
       </c>
       <c r="I48" s="14"/>
     </row>
     <row r="49" spans="1:9" ht="154.5" customHeight="1">
       <c r="A49" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="H49" s="31" t="s">
         <v>167</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="H49" s="31" t="s">
-        <v>168</v>
       </c>
       <c r="I49" s="14"/>
     </row>
     <row r="50" spans="1:9" ht="205.5" customHeight="1">
       <c r="A50" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>172</v>
-      </c>
       <c r="F50" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H50" s="31"/>
       <c r="I50" s="14"/>
     </row>
     <row r="51" spans="1:9" ht="126" customHeight="1">
       <c r="A51" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>172</v>
-      </c>
       <c r="F51" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H51" s="31"/>
       <c r="I51" s="14"/>
     </row>
     <row r="52" spans="1:9" ht="105.75" customHeight="1">
       <c r="A52" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>177</v>
-      </c>
       <c r="F52" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I52" s="14"/>
     </row>
     <row r="53" spans="1:9" ht="117" customHeight="1">
       <c r="A53" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" s="31" t="s">
         <v>238</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H53" s="31" t="s">
-        <v>239</v>
       </c>
       <c r="I53" s="14"/>
     </row>
     <row r="54" spans="1:9" ht="120.75" customHeight="1">
       <c r="A54" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="C54" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="D54" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E54" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>184</v>
-      </c>
       <c r="F54" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G54" s="23"/>
       <c r="H54" s="31"/>
@@ -2779,156 +2796,156 @@
     </row>
     <row r="55" spans="1:9" ht="147" customHeight="1">
       <c r="A55" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="D55" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E55" s="15" t="s">
+      <c r="F55" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="F55" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" s="31" t="s">
+      <c r="I55" s="21" t="s">
         <v>189</v>
-      </c>
-      <c r="I55" s="21" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="168">
       <c r="A56" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E56" s="15" t="s">
+      <c r="F56" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="31" t="s">
         <v>193</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H56" s="31" t="s">
-        <v>194</v>
       </c>
       <c r="I56" s="14"/>
     </row>
     <row r="57" spans="1:9" ht="182">
       <c r="A57" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="C57" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" s="31" t="s">
         <v>196</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" s="31" t="s">
-        <v>197</v>
       </c>
       <c r="I57" s="14"/>
     </row>
     <row r="58" spans="1:9" ht="111" customHeight="1">
       <c r="A58" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" s="31" t="s">
         <v>199</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H58" s="31" t="s">
-        <v>200</v>
       </c>
       <c r="I58" s="14"/>
     </row>
     <row r="59" spans="1:9" ht="51" customHeight="1">
       <c r="A59" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="8" t="s">
+      <c r="D59" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>203</v>
-      </c>
       <c r="F59" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I59" s="14"/>
     </row>
     <row r="60" spans="1:9" ht="136.5" customHeight="1">
       <c r="A60" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="C60" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="D60" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E60" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>12</v>
@@ -2941,129 +2958,129 @@
     </row>
     <row r="61" spans="1:9" ht="183" customHeight="1">
       <c r="A61" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>210</v>
-      </c>
       <c r="C61" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H61" s="31"/>
       <c r="I61" s="14"/>
     </row>
     <row r="62" spans="1:9" ht="184.5" customHeight="1">
       <c r="A62" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="8" t="s">
+      <c r="D62" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E62" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>213</v>
-      </c>
       <c r="F62" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H62" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I62" s="14"/>
     </row>
     <row r="63" spans="1:9" ht="176.25" customHeight="1">
       <c r="A63" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E63" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>217</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H63" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="I63" s="21" t="s">
         <v>218</v>
-      </c>
-      <c r="I63" s="21" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="175.5" customHeight="1">
       <c r="A64" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>222</v>
-      </c>
       <c r="D64" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H64" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="I64" s="21" t="s">
         <v>223</v>
-      </c>
-      <c r="I64" s="21" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="177" customHeight="1">
       <c r="A65" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="C65" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="D65" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E65" s="26" t="s">
         <v>227</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>228</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>12</v>
@@ -13186,60 +13203,59 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A24" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A25" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A27" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A28" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A29" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A30" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A31" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A32" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A33" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A34" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A35" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A36" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A38" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A39" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A40" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A41" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A42" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A43" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A44" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A45" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A46" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A47" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A48" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A49" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A50" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A52" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A54" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="A55" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A56" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="A57" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="A58" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="A59" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="A60" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="A61" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="A62" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="A63" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="A64" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="A65" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A30" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A31" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A32" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A33" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A34" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A35" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A36" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A38" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A39" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A40" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A41" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A42" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A43" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A44" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A45" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A46" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A47" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A48" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A49" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A50" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A52" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A54" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A55" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A56" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A57" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A58" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A59" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A60" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A61" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A62" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A63" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A64" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A65" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/artworks.xlsx
+++ b/data/artworks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hale/Desktop/artworks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBDC875-00B4-5D41-BAFE-0316F5372B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07B79D3-0CA1-3C4C-9A26-7934B6C3E01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="18760" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="259">
   <si>
     <t>URL</t>
   </si>
@@ -273,9 +273,6 @@
     <t>https://lh5.googleusercontent.com/PWrz3Y4km0N55felokNelkYsMB4tbTosUUmnFErEdIYQsKvd3iTCnfFKIPjZ_xNWAoscvlqjXGbTU1lkDZk_uP-XUHgET5viy9zPLvIi7uE5wRZ8I7AK3Ef3o-_8xJi3B9UEKx1mtw=s0</t>
   </si>
   <si>
-    <t>Maestá</t>
-  </si>
-  <si>
     <t>Cathedral of Siena</t>
   </si>
   <si>
@@ -880,6 +877,12 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/53/Marble_David_by_Donatello-Bargello.jpg/1200px-Marble_David_by_Donatello-Bargello.jpg</t>
+  </si>
+  <si>
+    <t>Maestá 2</t>
+  </si>
+  <si>
+    <t>Maestá 1</t>
   </si>
 </sst>
 </file>
@@ -1330,8 +1333,8 @@
   </sheetPr>
   <dimension ref="A1:AA984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1354,7 +1357,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -1401,7 +1404,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>11</v>
@@ -1417,7 +1420,7 @@
     </row>
     <row r="3" spans="1:27" ht="147.75" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>14</v>
@@ -1426,7 +1429,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>16</v>
@@ -1451,7 +1454,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>21</v>
@@ -1476,7 +1479,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>26</v>
@@ -1503,7 +1506,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>31</v>
@@ -1528,7 +1531,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>34</v>
@@ -1555,7 +1558,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>34</v>
@@ -1582,7 +1585,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>43</v>
@@ -1603,13 +1606,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>47</v>
@@ -1630,13 +1633,13 @@
         <v>49</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>50</v>
@@ -1659,13 +1662,13 @@
         <v>53</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>55</v>
@@ -1686,13 +1689,13 @@
         <v>58</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>59</v>
@@ -1710,7 +1713,7 @@
     </row>
     <row r="14" spans="1:27" ht="201.75" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>61</v>
@@ -1719,25 +1722,25 @@
         <v>62</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="166.5" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>63</v>
@@ -1746,13 +1749,13 @@
         <v>62</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>27</v>
@@ -1762,12 +1765,12 @@
         <v>#NAME?</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="141.75" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>64</v>
@@ -1776,27 +1779,27 @@
         <v>62</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="168" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>65</v>
@@ -1805,25 +1808,25 @@
         <v>62</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="142.5" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>66</v>
@@ -1832,25 +1835,25 @@
         <v>62</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="131.25" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>67</v>
@@ -1859,13 +1862,13 @@
         <v>62</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="31"/>
@@ -1876,13 +1879,13 @@
         <v>68</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>70</v>
@@ -1905,181 +1908,181 @@
         <v>73</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E21" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" ht="98.25" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E22" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="139.5" customHeight="1">
       <c r="A23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" ht="185.25" customHeight="1">
       <c r="A24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" ht="156.75" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" ht="197.25" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="G26" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="H26" s="31" t="s">
         <v>94</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>95</v>
       </c>
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" ht="246" customHeight="1">
       <c r="A27" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="F27" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>13</v>
@@ -2089,22 +2092,22 @@
     </row>
     <row r="28" spans="1:9" ht="195" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>101</v>
-      </c>
       <c r="C28" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="F28" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>13</v>
@@ -2114,22 +2117,22 @@
     </row>
     <row r="29" spans="1:9" ht="169.5" customHeight="1">
       <c r="A29" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>103</v>
-      </c>
       <c r="C29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="F29" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>13</v>
@@ -2139,22 +2142,22 @@
     </row>
     <row r="30" spans="1:9" ht="180" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>105</v>
-      </c>
       <c r="C30" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="F30" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>13</v>
@@ -2164,76 +2167,76 @@
     </row>
     <row r="31" spans="1:9" ht="128.25" customHeight="1">
       <c r="A31" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>107</v>
-      </c>
       <c r="C31" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="F31" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" ht="111.75" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="C32" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="F32" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" ht="166.5" customHeight="1">
       <c r="A33" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="C33" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="F33" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>13</v>
@@ -2243,22 +2246,22 @@
     </row>
     <row r="34" spans="1:9" ht="241.5" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="C34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="F34" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>13</v>
@@ -2268,20 +2271,20 @@
     </row>
     <row r="35" spans="1:9" ht="180" customHeight="1">
       <c r="A35" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>117</v>
-      </c>
       <c r="C35" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>22</v>
@@ -2291,22 +2294,22 @@
     </row>
     <row r="36" spans="1:9" ht="132.75" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>120</v>
-      </c>
       <c r="F36" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>13</v>
@@ -2316,20 +2319,20 @@
     </row>
     <row r="37" spans="1:9" ht="23.25" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G37" s="23" t="s">
         <v>13</v>
@@ -2339,19 +2342,19 @@
     </row>
     <row r="38" spans="1:9" ht="171" customHeight="1">
       <c r="A38" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>44</v>
@@ -2360,331 +2363,331 @@
         <v>27</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" ht="145.5" customHeight="1">
       <c r="A39" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E39" s="15" t="s">
+      <c r="F39" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:9" ht="130.5" customHeight="1">
       <c r="A40" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="C40" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E40" s="15" t="s">
+      <c r="F40" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9" ht="103.5" customHeight="1">
       <c r="A41" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="8" t="s">
+      <c r="D41" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" s="31" t="s">
         <v>136</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H41" s="31" t="s">
-        <v>137</v>
       </c>
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9" ht="156.75" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="C42" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" s="31" t="s">
         <v>139</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H42" s="31" t="s">
-        <v>140</v>
       </c>
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="1:9" ht="255">
       <c r="A43" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43" s="31" t="s">
         <v>142</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H43" s="31" t="s">
-        <v>143</v>
       </c>
       <c r="I43" s="14"/>
     </row>
     <row r="44" spans="1:9" ht="135" customHeight="1">
       <c r="A44" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H44" s="31" t="s">
         <v>145</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H44" s="31" t="s">
-        <v>146</v>
       </c>
       <c r="I44" s="14"/>
     </row>
     <row r="45" spans="1:9" ht="176.25" customHeight="1">
       <c r="A45" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>149</v>
-      </c>
       <c r="F45" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H45" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="I45" s="21" t="s">
         <v>150</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="150.75" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H46" s="31" t="s">
+      <c r="I46" s="21" t="s">
         <v>154</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="159.75" customHeight="1">
       <c r="A47" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E47" s="15" t="s">
+      <c r="F47" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G47" s="13" t="s">
+      <c r="H47" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="H47" s="31" t="s">
+      <c r="I47" s="21" t="s">
         <v>160</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="162.75" customHeight="1">
       <c r="A48" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H48" s="31" t="s">
         <v>163</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H48" s="31" t="s">
-        <v>164</v>
       </c>
       <c r="I48" s="14"/>
     </row>
     <row r="49" spans="1:9" ht="154.5" customHeight="1">
       <c r="A49" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H49" s="31" t="s">
         <v>166</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H49" s="31" t="s">
-        <v>167</v>
       </c>
       <c r="I49" s="14"/>
     </row>
     <row r="50" spans="1:9" ht="205.5" customHeight="1">
       <c r="A50" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E50" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>171</v>
-      </c>
       <c r="F50" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>27</v>
@@ -2694,22 +2697,22 @@
     </row>
     <row r="51" spans="1:9" ht="126" customHeight="1">
       <c r="A51" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>171</v>
-      </c>
       <c r="F51" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>27</v>
@@ -2719,19 +2722,19 @@
     </row>
     <row r="52" spans="1:9" ht="105.75" customHeight="1">
       <c r="A52" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E52" s="25" t="s">
         <v>175</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>176</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>17</v>
@@ -2740,52 +2743,52 @@
         <v>13</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I52" s="14"/>
     </row>
     <row r="53" spans="1:9" ht="117" customHeight="1">
       <c r="A53" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="D53" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I53" s="14"/>
     </row>
     <row r="54" spans="1:9" ht="120.75" customHeight="1">
       <c r="A54" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="C54" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="D54" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>183</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>17</v>
@@ -2796,19 +2799,19 @@
     </row>
     <row r="55" spans="1:9" ht="147" customHeight="1">
       <c r="A55" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="D55" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>187</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>56</v>
@@ -2817,27 +2820,27 @@
         <v>27</v>
       </c>
       <c r="H55" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="I55" s="21" t="s">
         <v>188</v>
-      </c>
-      <c r="I55" s="21" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="168">
       <c r="A56" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>191</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>192</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>56</v>
@@ -2846,25 +2849,25 @@
         <v>27</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I56" s="14"/>
     </row>
     <row r="57" spans="1:9" ht="182">
       <c r="A57" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>195</v>
-      </c>
       <c r="C57" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>56</v>
@@ -2873,25 +2876,25 @@
         <v>27</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I57" s="14"/>
     </row>
     <row r="58" spans="1:9" ht="111" customHeight="1">
       <c r="A58" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>198</v>
-      </c>
       <c r="C58" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>56</v>
@@ -2900,25 +2903,25 @@
         <v>27</v>
       </c>
       <c r="H58" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I58" s="14"/>
     </row>
     <row r="59" spans="1:9" ht="51" customHeight="1">
       <c r="A59" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" s="8" t="s">
+      <c r="D59" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>44</v>
@@ -2927,25 +2930,25 @@
         <v>13</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I59" s="14"/>
     </row>
     <row r="60" spans="1:9" ht="136.5" customHeight="1">
       <c r="A60" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="C60" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="D60" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E60" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>207</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>12</v>
@@ -2958,19 +2961,19 @@
     </row>
     <row r="61" spans="1:9" ht="183" customHeight="1">
       <c r="A61" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>209</v>
-      </c>
       <c r="C61" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>12</v>
@@ -2983,46 +2986,46 @@
     </row>
     <row r="62" spans="1:9" ht="184.5" customHeight="1">
       <c r="A62" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="8" t="s">
+      <c r="D62" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E62" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>212</v>
-      </c>
       <c r="F62" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H62" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I62" s="14"/>
     </row>
     <row r="63" spans="1:9" ht="176.25" customHeight="1">
       <c r="A63" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E63" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>216</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>12</v>
@@ -3031,27 +3034,27 @@
         <v>22</v>
       </c>
       <c r="H63" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="I63" s="21" t="s">
         <v>217</v>
-      </c>
-      <c r="I63" s="21" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="175.5" customHeight="1">
       <c r="A64" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>221</v>
-      </c>
       <c r="D64" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>12</v>
@@ -3060,27 +3063,27 @@
         <v>22</v>
       </c>
       <c r="H64" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="I64" s="21" t="s">
         <v>222</v>
-      </c>
-      <c r="I64" s="21" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="177" customHeight="1">
       <c r="A65" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="C65" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="D65" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E65" s="26" t="s">
         <v>226</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>227</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>12</v>

--- a/data/artworks.xlsx
+++ b/data/artworks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hale/Desktop/artworks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07B79D3-0CA1-3C4C-9A26-7934B6C3E01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447EE306-CBCF-5440-816B-1F57699FDA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="18760" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="260">
   <si>
     <t>URL</t>
   </si>
@@ -354,9 +354,6 @@
     <t>https://lh5.googleusercontent.com/kwvocOAEr9XMzZAGYf7pm1idl3JV4DDm8DqYWBcuI95pT7NNCf8fPIZuNytCg76uHRLBDM5VRX3vC-75_vrlmUNcQ6MpwREAOq8A0QpdIMoR2XejdyxmjcBVdX647IbB9EZfZ7euGg=s0</t>
   </si>
   <si>
-    <t>Last Judgement</t>
-  </si>
-  <si>
     <t>Giotto</t>
   </si>
   <si>
@@ -883,6 +880,12 @@
   </si>
   <si>
     <t>Maestá 1</t>
+  </si>
+  <si>
+    <t>Last Judgement 1</t>
+  </si>
+  <si>
+    <t>Last Judgement 2</t>
   </si>
 </sst>
 </file>
@@ -1333,8 +1336,8 @@
   </sheetPr>
   <dimension ref="A1:AA984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1357,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -1404,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>11</v>
@@ -1420,7 +1423,7 @@
     </row>
     <row r="3" spans="1:27" ht="147.75" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>14</v>
@@ -1429,7 +1432,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>16</v>
@@ -1454,7 +1457,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>21</v>
@@ -1479,7 +1482,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>26</v>
@@ -1506,7 +1509,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>31</v>
@@ -1531,7 +1534,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>34</v>
@@ -1558,7 +1561,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>34</v>
@@ -1585,7 +1588,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>43</v>
@@ -1606,13 +1609,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>47</v>
@@ -1633,13 +1636,13 @@
         <v>49</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>50</v>
@@ -1662,13 +1665,13 @@
         <v>53</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>55</v>
@@ -1689,13 +1692,13 @@
         <v>58</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>59</v>
@@ -1713,7 +1716,7 @@
     </row>
     <row r="14" spans="1:27" ht="201.75" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>61</v>
@@ -1722,7 +1725,7 @@
         <v>62</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="24" t="s">
@@ -1732,15 +1735,15 @@
         <v>27</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="166.5" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>63</v>
@@ -1749,10 +1752,10 @@
         <v>62</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>92</v>
@@ -1765,12 +1768,12 @@
         <v>#NAME?</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="141.75" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>64</v>
@@ -1779,27 +1782,27 @@
         <v>62</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G16" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="168" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>65</v>
@@ -1808,25 +1811,25 @@
         <v>62</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="142.5" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>66</v>
@@ -1835,25 +1838,25 @@
         <v>62</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="131.25" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>67</v>
@@ -1862,13 +1865,13 @@
         <v>62</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="31"/>
@@ -1879,13 +1882,13 @@
         <v>68</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>70</v>
@@ -1908,13 +1911,13 @@
         <v>73</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>74</v>
@@ -1941,7 +1944,7 @@
         <v>69</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>74</v>
@@ -1968,7 +1971,7 @@
         <v>69</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>74</v>
@@ -1995,7 +1998,7 @@
         <v>69</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>74</v>
@@ -2016,13 +2019,13 @@
         <v>86</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>74</v>
@@ -2049,7 +2052,7 @@
         <v>90</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>91</v>
@@ -2070,16 +2073,16 @@
         <v>95</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>75</v>
@@ -2092,19 +2095,19 @@
     </row>
     <row r="28" spans="1:9" ht="195" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="C28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>75</v>
@@ -2117,19 +2120,19 @@
     </row>
     <row r="29" spans="1:9" ht="169.5" customHeight="1">
       <c r="A29" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="C29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>75</v>
@@ -2142,19 +2145,19 @@
     </row>
     <row r="30" spans="1:9" ht="180" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>104</v>
-      </c>
       <c r="C30" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>75</v>
@@ -2167,19 +2170,19 @@
     </row>
     <row r="31" spans="1:9" ht="128.25" customHeight="1">
       <c r="A31" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="C31" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>75</v>
@@ -2188,25 +2191,25 @@
         <v>13</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" ht="111.75" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="C32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>75</v>
@@ -2215,25 +2218,25 @@
         <v>13</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" ht="166.5" customHeight="1">
       <c r="A33" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="C33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>75</v>
@@ -2246,19 +2249,19 @@
     </row>
     <row r="34" spans="1:9" ht="241.5" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="C34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>75</v>
@@ -2271,16 +2274,16 @@
     </row>
     <row r="35" spans="1:9" ht="180" customHeight="1">
       <c r="A35" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="C35" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="12" t="s">
@@ -2294,19 +2297,19 @@
     </row>
     <row r="36" spans="1:9" ht="132.75" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>119</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>75</v>
@@ -2319,16 +2322,16 @@
     </row>
     <row r="37" spans="1:9" ht="23.25" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="24" t="s">
@@ -2342,19 +2345,19 @@
     </row>
     <row r="38" spans="1:9" ht="171" customHeight="1">
       <c r="A38" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>44</v>
@@ -2363,76 +2366,76 @@
         <v>27</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" ht="145.5" customHeight="1">
       <c r="A39" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E39" s="15" t="s">
+      <c r="F39" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:9" ht="130.5" customHeight="1">
       <c r="A40" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="C40" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E40" s="15" t="s">
+      <c r="F40" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9" ht="103.5" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>91</v>
@@ -2444,22 +2447,22 @@
         <v>93</v>
       </c>
       <c r="H41" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9" ht="156.75" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="C42" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>91</v>
@@ -2471,22 +2474,22 @@
         <v>93</v>
       </c>
       <c r="H42" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="1:9" ht="255">
       <c r="A43" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C43" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>91</v>
@@ -2498,22 +2501,22 @@
         <v>93</v>
       </c>
       <c r="H43" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I43" s="14"/>
     </row>
     <row r="44" spans="1:9" ht="135" customHeight="1">
       <c r="A44" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>144</v>
-      </c>
       <c r="C44" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>91</v>
@@ -2525,25 +2528,25 @@
         <v>93</v>
       </c>
       <c r="H44" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I44" s="14"/>
     </row>
     <row r="45" spans="1:9" ht="176.25" customHeight="1">
       <c r="A45" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>148</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>92</v>
@@ -2552,27 +2555,27 @@
         <v>35</v>
       </c>
       <c r="H45" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="I45" s="21" t="s">
         <v>149</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="150.75" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>152</v>
-      </c>
       <c r="C46" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>92</v>
@@ -2581,110 +2584,110 @@
         <v>93</v>
       </c>
       <c r="H46" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="I46" s="21" t="s">
         <v>153</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="159.75" customHeight="1">
       <c r="A47" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E47" s="15" t="s">
+      <c r="F47" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G47" s="13" t="s">
+      <c r="H47" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="H47" s="31" t="s">
+      <c r="I47" s="21" t="s">
         <v>159</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="162.75" customHeight="1">
       <c r="A48" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48" s="31" t="s">
         <v>162</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="H48" s="31" t="s">
-        <v>163</v>
       </c>
       <c r="I48" s="14"/>
     </row>
     <row r="49" spans="1:9" ht="154.5" customHeight="1">
       <c r="A49" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H49" s="31" t="s">
         <v>165</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="H49" s="31" t="s">
-        <v>166</v>
       </c>
       <c r="I49" s="14"/>
     </row>
     <row r="50" spans="1:9" ht="205.5" customHeight="1">
       <c r="A50" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>170</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>75</v>
@@ -2697,19 +2700,19 @@
     </row>
     <row r="51" spans="1:9" ht="126" customHeight="1">
       <c r="A51" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>170</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>75</v>
@@ -2722,19 +2725,19 @@
     </row>
     <row r="52" spans="1:9" ht="105.75" customHeight="1">
       <c r="A52" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" s="25" t="s">
         <v>174</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>175</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>17</v>
@@ -2743,25 +2746,25 @@
         <v>13</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I52" s="14"/>
     </row>
     <row r="53" spans="1:9" ht="117" customHeight="1">
       <c r="A53" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="D53" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F53" s="24" t="s">
         <v>92</v>
@@ -2770,25 +2773,25 @@
         <v>27</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I53" s="14"/>
     </row>
     <row r="54" spans="1:9" ht="120.75" customHeight="1">
       <c r="A54" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="C54" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="D54" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E54" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>17</v>
@@ -2799,19 +2802,19 @@
     </row>
     <row r="55" spans="1:9" ht="147" customHeight="1">
       <c r="A55" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="D55" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>186</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>56</v>
@@ -2820,27 +2823,27 @@
         <v>27</v>
       </c>
       <c r="H55" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="I55" s="21" t="s">
         <v>187</v>
-      </c>
-      <c r="I55" s="21" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="168">
       <c r="A56" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>191</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>56</v>
@@ -2849,25 +2852,25 @@
         <v>27</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I56" s="14"/>
     </row>
     <row r="57" spans="1:9" ht="182">
       <c r="A57" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>194</v>
-      </c>
       <c r="C57" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>56</v>
@@ -2876,25 +2879,25 @@
         <v>27</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I57" s="14"/>
     </row>
     <row r="58" spans="1:9" ht="111" customHeight="1">
       <c r="A58" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>197</v>
-      </c>
       <c r="C58" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>56</v>
@@ -2903,25 +2906,25 @@
         <v>27</v>
       </c>
       <c r="H58" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I58" s="14"/>
     </row>
     <row r="59" spans="1:9" ht="51" customHeight="1">
       <c r="A59" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" s="8" t="s">
+      <c r="D59" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>200</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>201</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>44</v>
@@ -2930,25 +2933,25 @@
         <v>13</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I59" s="14"/>
     </row>
     <row r="60" spans="1:9" ht="136.5" customHeight="1">
       <c r="A60" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="C60" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="D60" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E60" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>206</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>12</v>
@@ -2961,19 +2964,19 @@
     </row>
     <row r="61" spans="1:9" ht="183" customHeight="1">
       <c r="A61" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>208</v>
-      </c>
       <c r="C61" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>12</v>
@@ -2986,19 +2989,19 @@
     </row>
     <row r="62" spans="1:9" ht="184.5" customHeight="1">
       <c r="A62" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C62" s="8" t="s">
+      <c r="D62" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E62" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>75</v>
@@ -3007,25 +3010,25 @@
         <v>13</v>
       </c>
       <c r="H62" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I62" s="14"/>
     </row>
     <row r="63" spans="1:9" ht="176.25" customHeight="1">
       <c r="A63" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E63" s="13" t="s">
         <v>214</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>215</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>12</v>
@@ -3034,24 +3037,24 @@
         <v>22</v>
       </c>
       <c r="H63" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="I63" s="21" t="s">
         <v>216</v>
-      </c>
-      <c r="I63" s="21" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="175.5" customHeight="1">
       <c r="A64" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="D64" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>74</v>
@@ -3063,27 +3066,27 @@
         <v>22</v>
       </c>
       <c r="H64" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="I64" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="I64" s="21" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="177" customHeight="1">
       <c r="A65" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="C65" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="D65" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E65" s="26" t="s">
         <v>225</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>226</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>12</v>

--- a/data/artworks.xlsx
+++ b/data/artworks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hale/Desktop/artworks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447EE306-CBCF-5440-816B-1F57699FDA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE6D84A-95B4-D741-BD09-71AC45C0692A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="18760" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,9 +699,6 @@
     <t>Pietro Cavallini</t>
   </si>
   <si>
-    <t>Naples</t>
-  </si>
-  <si>
     <t>-Saint John the Baptist and 6 apostles to the left, Mary and 6 apostle to the right</t>
   </si>
   <si>
@@ -886,6 +883,9 @@
   </si>
   <si>
     <t>Last Judgement 2</t>
+  </si>
+  <si>
+    <t>Santa Cecilia</t>
   </si>
 </sst>
 </file>
@@ -1336,8 +1336,8 @@
   </sheetPr>
   <dimension ref="A1:AA984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1360,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -1407,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>11</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="3" spans="1:27" ht="147.75" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>14</v>
@@ -1432,7 +1432,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>16</v>
@@ -1457,7 +1457,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>21</v>
@@ -1482,7 +1482,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>26</v>
@@ -1509,7 +1509,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>31</v>
@@ -1534,7 +1534,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>34</v>
@@ -1561,7 +1561,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>34</v>
@@ -1588,7 +1588,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>43</v>
@@ -1609,13 +1609,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>47</v>
@@ -1636,13 +1636,13 @@
         <v>49</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>50</v>
@@ -1665,13 +1665,13 @@
         <v>53</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>55</v>
@@ -1692,13 +1692,13 @@
         <v>58</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>59</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="14" spans="1:27" ht="201.75" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>61</v>
@@ -1725,7 +1725,7 @@
         <v>62</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="24" t="s">
@@ -1735,15 +1735,15 @@
         <v>27</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="166.5" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>63</v>
@@ -1752,7 +1752,7 @@
         <v>62</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>147</v>
@@ -1768,12 +1768,12 @@
         <v>#NAME?</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="141.75" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>64</v>
@@ -1782,7 +1782,7 @@
         <v>62</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>147</v>
@@ -1794,15 +1794,15 @@
         <v>27</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="168" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>65</v>
@@ -1811,7 +1811,7 @@
         <v>62</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>147</v>
@@ -1820,16 +1820,16 @@
         <v>128</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="142.5" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>66</v>
@@ -1838,25 +1838,25 @@
         <v>62</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="24" t="s">
         <v>128</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="131.25" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>67</v>
@@ -1865,10 +1865,10 @@
         <v>62</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>128</v>
@@ -1882,13 +1882,13 @@
         <v>68</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>70</v>
@@ -1911,13 +1911,13 @@
         <v>73</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>74</v>
@@ -1944,7 +1944,7 @@
         <v>69</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>74</v>
@@ -1971,7 +1971,7 @@
         <v>69</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>74</v>
@@ -1998,7 +1998,7 @@
         <v>69</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>74</v>
@@ -2019,13 +2019,13 @@
         <v>86</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>74</v>
@@ -2052,7 +2052,7 @@
         <v>90</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>91</v>
@@ -2073,13 +2073,13 @@
         <v>95</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>96</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>97</v>
@@ -2104,7 +2104,7 @@
         <v>96</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>97</v>
@@ -2129,7 +2129,7 @@
         <v>96</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>97</v>
@@ -2154,7 +2154,7 @@
         <v>96</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>97</v>
@@ -2179,7 +2179,7 @@
         <v>96</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>97</v>
@@ -2206,7 +2206,7 @@
         <v>96</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>97</v>
@@ -2233,7 +2233,7 @@
         <v>96</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>97</v>
@@ -2258,7 +2258,7 @@
         <v>96</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>97</v>
@@ -2283,7 +2283,7 @@
         <v>96</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="12" t="s">
@@ -2306,7 +2306,7 @@
         <v>96</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>118</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="37" spans="1:9" ht="23.25" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>119</v>
@@ -2331,7 +2331,7 @@
         <v>96</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="24" t="s">
@@ -2354,7 +2354,7 @@
         <v>122</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>123</v>
@@ -2375,13 +2375,13 @@
         <v>125</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>126</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>127</v>
@@ -2408,7 +2408,7 @@
         <v>126</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>127</v>
@@ -2435,7 +2435,7 @@
         <v>134</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>91</v>
@@ -2462,7 +2462,7 @@
         <v>134</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>91</v>
@@ -2489,7 +2489,7 @@
         <v>134</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>91</v>
@@ -2516,7 +2516,7 @@
         <v>134</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>91</v>
@@ -2543,7 +2543,7 @@
         <v>134</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>147</v>
@@ -2572,7 +2572,7 @@
         <v>134</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>147</v>
@@ -2601,7 +2601,7 @@
         <v>134</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>156</v>
@@ -2630,7 +2630,7 @@
         <v>134</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>156</v>
@@ -2657,7 +2657,7 @@
         <v>134</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>156</v>
@@ -2684,7 +2684,7 @@
         <v>168</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>169</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="51" spans="1:9" ht="126" customHeight="1">
       <c r="A51" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>170</v>
@@ -2709,7 +2709,7 @@
         <v>168</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>169</v>
@@ -2734,7 +2734,7 @@
         <v>173</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E52" s="25" t="s">
         <v>174</v>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="53" spans="1:9" ht="117" customHeight="1">
       <c r="A53" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>176</v>
@@ -2761,7 +2761,7 @@
         <v>177</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>147</v>
@@ -2773,7 +2773,7 @@
         <v>27</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I53" s="14"/>
     </row>
@@ -2788,7 +2788,7 @@
         <v>180</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>181</v>
@@ -2811,7 +2811,7 @@
         <v>184</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>185</v>
@@ -2840,7 +2840,7 @@
         <v>184</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>190</v>
@@ -2867,7 +2867,7 @@
         <v>184</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>190</v>
@@ -2894,7 +2894,7 @@
         <v>184</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>190</v>
@@ -2915,16 +2915,16 @@
         <v>198</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>199</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>44</v>
@@ -2933,25 +2933,25 @@
         <v>13</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I59" s="14"/>
     </row>
     <row r="60" spans="1:9" ht="136.5" customHeight="1">
       <c r="A60" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="C60" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="D60" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E60" s="15" t="s">
         <v>204</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>205</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>12</v>
@@ -2964,16 +2964,16 @@
     </row>
     <row r="61" spans="1:9" ht="183" customHeight="1">
       <c r="A61" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>207</v>
-      </c>
       <c r="C61" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>181</v>
@@ -2989,19 +2989,19 @@
     </row>
     <row r="62" spans="1:9" ht="184.5" customHeight="1">
       <c r="A62" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C62" s="8" t="s">
+      <c r="D62" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E62" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>210</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>75</v>
@@ -3010,25 +3010,25 @@
         <v>13</v>
       </c>
       <c r="H62" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I62" s="14"/>
     </row>
     <row r="63" spans="1:9" ht="176.25" customHeight="1">
       <c r="A63" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E63" s="13" t="s">
         <v>213</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>214</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>12</v>
@@ -3037,24 +3037,24 @@
         <v>22</v>
       </c>
       <c r="H63" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="I63" s="21" t="s">
         <v>215</v>
-      </c>
-      <c r="I63" s="21" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="175.5" customHeight="1">
       <c r="A64" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>219</v>
-      </c>
       <c r="D64" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>74</v>
@@ -3066,27 +3066,27 @@
         <v>22</v>
       </c>
       <c r="H64" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="I64" s="21" t="s">
         <v>220</v>
-      </c>
-      <c r="I64" s="21" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="177" customHeight="1">
       <c r="A65" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="C65" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="D65" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E65" s="26" t="s">
         <v>224</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>225</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>12</v>
